--- a/Estatística.xlsx
+++ b/Estatística.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2340" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Valor + Cor</t>
+  </si>
+  <si>
+    <t>Tudo</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Cor + Nipe</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,17 +95,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,255 +425,778 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>1/$A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="3">
+        <f>1/$A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="1">
+        <f>I$2*B3</f>
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="1">
+        <f>J$2*C3</f>
+        <v>7.5</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(I3:K3)</f>
+        <v>22.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>P3</f>
+        <v>22.5</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:S9" si="0">P3/30</f>
+        <v>0.75</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>1/$A4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="3">
+        <f>1/$A4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4" s="3">
+        <f>1/A4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="1">
+        <f>I$2*B4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:N9" si="1">J$2*C4</f>
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="P4" s="1">
+        <f>SUM(I4:K4)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>P4</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:C13" si="2">1/$A5</f>
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1/A5</f>
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(1)/$A5</f>
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="3">
+        <f>($A5-3)/$A5</f>
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="3">
+        <f>($A5-3)/$A5</f>
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="1">
+        <f>I$2*B5</f>
+        <v>7.5</v>
+      </c>
+      <c r="J5" s="1">
+        <f>J$2*C5</f>
+        <v>3.75</v>
+      </c>
+      <c r="K5" s="1">
+        <f>K$2*D5</f>
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="P5" s="1">
+        <f>SUM(I5:J5)+MAX(K5+L5,K5+M5)</f>
+        <v>16.25</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>SUM(I5:K5)</f>
+        <v>13.75</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D9" si="3">1/A6</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(2)/$A6</f>
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:G13" si="4">($A6-3)/$A6</f>
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I5:I9" si="5">I$2*B6</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <f>1/$A3</f>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f>SUM(I6:J6)+MAX(K6*K3+L6*L3,M6*M3)</f>
+        <v>9</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>SUM(I6:K6)</f>
+        <v>11</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E13" si="6">(2)/$A7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="1">
-        <f>1/$A3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D3" s="1">
-        <f>($A3-2)/$A3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:F8" si="0">($A3-2)/$A3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(I7:J7)+MAX(K7*K4+L7*L4,M7*M4)</f>
+        <v>13.055555555555554</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUM(I7:K7)</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H3" s="1">
-        <f>$B$2*$B3+$C$2*$C3+D$2*D3</f>
-        <v>21.666666666666664</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:J3" si="1">$B$2*$B3+$C$2*$C3+E$2*E3</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
+        <v>0.43518518518518512</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <f>1/$A4</f>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428568</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428568</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f>SUM(I8:J8)+MAX(K8*K5+L8*L5,M8*M5)</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>SUM(I8:K8)</f>
+        <v>7.8571428571428577</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="C4" s="1">
-        <f>1/$A4</f>
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:F8" si="2">($A4-2)/$A4</f>
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="F9" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(I9:J9)+MAX(K9*K6+L9*L6,M9*M6)</f>
+        <v>18.125</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>SUM(I9:K9)</f>
+        <v>6.875</v>
+      </c>
+      <c r="R9" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="S9" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H8" si="3">$B$2*$B4+$C$2*$C4+D$2*D4</f>
-        <v>20</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I8" si="4">$B$2*$B4+$C$2*$C4+E$2*E4</f>
-        <v>15</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J8" si="5">$B$2*$B4+$C$2*$C4+F$2*F4</f>
-        <v>12.5</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:C8" si="6">1/$A5</f>
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="10" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" ref="D10:D12" si="7">1/A10</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="6"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:I12" si="8">I$2*B10</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" ref="J10:J12" si="9">J$2*C10</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" ref="K10:K12" si="10">K$2*D10</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10:L12" si="11">L$2*E10</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10:N12" si="12">M$2*F10</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <f>SUM(I10:J10)+MAX(K10*K7+L10*L7,M10*M7)</f>
+        <v>14.25925925925926</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>SUM(I10:K10)</f>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" ref="R10:R11" si="13">P10/30</f>
+        <v>0.47530864197530864</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" ref="S10:S11" si="14">Q10/30</f>
+        <v>0.20370370370370369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f>SUM(I11:J11)+MAX(K11*K8+L11*L8,M11*M8)</f>
+        <v>14.499999999999998</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>SUM(I11:K11)</f>
+        <v>5.5</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="13"/>
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="14"/>
+        <v>0.18333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="7"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="8"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="10"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="11"/>
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="12"/>
+        <v>3.6363636363636367</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUM(I12:J12)+MAX(K12*K9+L12*L9,M12*M9)</f>
+        <v>15.454545454545457</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>SUM(I12:K12)</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R12" s="4">
+        <f>P12/30</f>
+        <v>0.51515151515151525</v>
+      </c>
+      <c r="S12" s="4">
+        <f>Q12/30</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="15">1/A13</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>11.666666666666664</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>17.857142857142858</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>10.714285714285714</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>7.1428571428571423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
+      <c r="G13" s="3">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>6.25</v>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="16">I$2*B13</f>
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13" si="17">J$2*C13</f>
+        <v>1.25</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13" si="18">K$2*D13</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="19">L$2*E13</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13:N13" si="20">M$2*F13</f>
+        <v>3.75</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(I13:J13)+MAX(K13*K10+L13*L10,M13*M10)</f>
+        <v>16.25</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>SUM(I13:K13)</f>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" ref="R13" si="21">P13/30</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" ref="S13" si="22">Q13/30</f>
+        <v>0.15277777777777776</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>